--- a/biology/Botanique/Begonia_convolvulacea/Begonia_convolvulacea.xlsx
+++ b/biology/Botanique/Begonia_convolvulacea/Begonia_convolvulacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia convolvulacea est une espèce de plantes de la famille des Begoniaceae. Ce bégonia grimpant vivace est originaire du Brésil. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du Brésil.
 </t>
         </is>
       </c>
@@ -568,10 +584,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia convolvulacea fait partie de la section Wageneria du genre Begonia, famille des Begoniaceae[3]. En classification phylogénétique APG IV (2016)[4], comme classification phylogénétique APG III (2009)[5], celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981)[6] les Begoniaceae font partie de l'ordre des Violales.
-L'espèce a été décrite en 1854 sous le basionyme de Wageneria convolvulacea par Johann Friedrich Klotzsch (1805-1860), puis recombinée dans le genre Begonia en 1861 par Alphonse Pyrame de Candolle (1806-1893). L'épithète spécifique convolvulacea signifie « assez proche des Convolvulus »[7], Convolvulus étant un genre de liserons dont certaines espèces ont des feuilles d'aspect approchant.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia convolvulacea fait partie de la section Wageneria du genre Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016), comme classification phylogénétique APG III (2009), celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981) les Begoniaceae font partie de l'ordre des Violales.
+L'espèce a été décrite en 1854 sous le basionyme de Wageneria convolvulacea par Johann Friedrich Klotzsch (1805-1860), puis recombinée dans le genre Begonia en 1861 par Alphonse Pyrame de Candolle (1806-1893). L'épithète spécifique convolvulacea signifie « assez proche des Convolvulus », Convolvulus étant un genre de liserons dont certaines espèces ont des feuilles d'aspect approchant.
 Publication originale : Flora Brasiliensis 4(1): 367. 1861.
 </t>
         </is>
